--- a/doc/performance tests/Performance_WIN.xlsx
+++ b/doc/performance tests/Performance_WIN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="28515" windowHeight="12585" tabRatio="855" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="28515" windowHeight="12585" tabRatio="855"/>
   </bookViews>
   <sheets>
     <sheet name="SimpleWIN" sheetId="11" r:id="rId1"/>
@@ -31,9 +31,6 @@
     <t>Fast CDR</t>
   </si>
   <si>
-    <t>Minimum Time (seconds)</t>
-  </si>
-  <si>
     <t>Google Protocol Buffers</t>
   </si>
   <si>
@@ -47,6 +44,9 @@
   </si>
   <si>
     <t>FAST CDR</t>
+  </si>
+  <si>
+    <t>Minimum Time (microseconds)</t>
   </si>
 </sst>
 </file>
@@ -787,11 +787,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="103471872"/>
-        <c:axId val="103472448"/>
+        <c:axId val="106617600"/>
+        <c:axId val="106618176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="103471872"/>
+        <c:axId val="106617600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -820,12 +820,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103472448"/>
+        <c:crossAx val="106618176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="103472448"/>
+        <c:axId val="106618176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -843,7 +843,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Time (seconds)</a:t>
+                  <a:t>Time (microseconds)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -855,7 +855,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103471872"/>
+        <c:crossAx val="106617600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1205,11 +1205,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="120850112"/>
-        <c:axId val="120850688"/>
+        <c:axId val="68880064"/>
+        <c:axId val="68880640"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="120850112"/>
+        <c:axId val="68880064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1238,12 +1238,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120850688"/>
+        <c:crossAx val="68880640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="120850688"/>
+        <c:axId val="68880640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1261,7 +1261,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Time (seconds)</a:t>
+                  <a:t>Time (microseconds)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1273,7 +1273,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120850112"/>
+        <c:crossAx val="68880064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1623,11 +1623,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="120852992"/>
-        <c:axId val="120853568"/>
+        <c:axId val="68882944"/>
+        <c:axId val="68883520"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="120852992"/>
+        <c:axId val="68882944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1656,12 +1656,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120853568"/>
+        <c:crossAx val="68883520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="120853568"/>
+        <c:axId val="68883520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1679,7 +1679,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Time (seconds)</a:t>
+                  <a:t>Time (microseconds)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1691,7 +1691,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120852992"/>
+        <c:crossAx val="68882944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2035,11 +2035,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="120855872"/>
-        <c:axId val="125935616"/>
+        <c:axId val="68885824"/>
+        <c:axId val="115638272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="120855872"/>
+        <c:axId val="68885824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2068,12 +2068,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125935616"/>
+        <c:crossAx val="115638272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="125935616"/>
+        <c:axId val="115638272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2091,7 +2091,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Time (seconds)</a:t>
+                  <a:t>Time (microseconds)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2103,7 +2103,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120855872"/>
+        <c:crossAx val="68885824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2562,8 +2562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:L11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:J1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38:C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2577,21 +2577,21 @@
   <sheetData>
     <row r="1" spans="3:12" x14ac:dyDescent="0.25">
       <c r="I1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="14" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>9</v>
       </c>
       <c r="K1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="3:12" x14ac:dyDescent="0.25">
       <c r="I2" s="14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J2" s="14" t="s">
         <v>3</v>
@@ -2600,7 +2600,7 @@
         <v>2</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2633,7 +2633,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E5" s="24"/>
       <c r="F5" s="24"/>
@@ -2789,7 +2789,7 @@
   <dimension ref="C1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:J1"/>
+      <selection activeCell="D5" sqref="D5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2803,21 +2803,21 @@
   <sheetData>
     <row r="1" spans="3:12" x14ac:dyDescent="0.25">
       <c r="I1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="14" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>9</v>
       </c>
       <c r="K1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="3:12" x14ac:dyDescent="0.25">
       <c r="I2" s="14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J2" s="14" t="s">
         <v>3</v>
@@ -2826,7 +2826,7 @@
         <v>2</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2859,7 +2859,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E5" s="24"/>
       <c r="F5" s="24"/>
@@ -3015,7 +3015,7 @@
   <dimension ref="C1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:J1"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3029,21 +3029,21 @@
   <sheetData>
     <row r="1" spans="3:12" x14ac:dyDescent="0.25">
       <c r="I1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="14" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>9</v>
       </c>
       <c r="K1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="3:12" x14ac:dyDescent="0.25">
       <c r="I2" s="14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J2" s="14" t="s">
         <v>3</v>
@@ -3052,7 +3052,7 @@
         <v>2</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3085,7 +3085,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E5" s="24"/>
       <c r="F5" s="24"/>
@@ -3240,8 +3240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3255,21 +3255,21 @@
   <sheetData>
     <row r="1" spans="3:12" x14ac:dyDescent="0.25">
       <c r="I1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="14" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>9</v>
       </c>
       <c r="K1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="3:12" x14ac:dyDescent="0.25">
       <c r="I2" s="14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J2" s="14" t="s">
         <v>3</v>
@@ -3278,7 +3278,7 @@
         <v>2</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3311,7 +3311,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E5" s="24"/>
       <c r="F5" s="24"/>

--- a/doc/performance tests/Performance_WIN.xlsx
+++ b/doc/performance tests/Performance_WIN.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="14">
   <si>
     <t>DYNAMIC FAST BUFFERS</t>
   </si>
@@ -47,6 +47,18 @@
   </si>
   <si>
     <t>Minimum Time (microseconds)</t>
+  </si>
+  <si>
+    <t>DATA SIZES</t>
+  </si>
+  <si>
+    <t>Protobuf</t>
+  </si>
+  <si>
+    <t>St size</t>
+  </si>
+  <si>
+    <t>Fast CDR &amp; DFB</t>
   </si>
 </sst>
 </file>
@@ -381,7 +393,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -439,6 +451,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -787,11 +802,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="106617600"/>
-        <c:axId val="106618176"/>
+        <c:axId val="68737792"/>
+        <c:axId val="68738368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="106617600"/>
+        <c:axId val="68737792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -820,12 +835,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106618176"/>
+        <c:crossAx val="68738368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="106618176"/>
+        <c:axId val="68738368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -855,7 +870,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106617600"/>
+        <c:crossAx val="68737792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -902,7 +917,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Performance</a:t>
+              <a:t>Serialized data comparison</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -910,24 +925,8 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Google Protobuf &amp; </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Apache Thrift VS eProsima </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>FastCDR &amp; </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Dynamic Fast Buffers</a:t>
+              <a:rPr lang="en-US" sz="1400"/>
+              <a:t>(simple structure)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -938,15 +937,16 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>ComplexWIN!$E$6</c:f>
+              <c:f>SimpleWIN!$N$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -955,247 +955,210 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>ComplexWIN!$C$7:$C$11</c:f>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>SimpleWIN!$Q$6:$Q$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>136</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>264</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>392</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>520</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>656</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>ComplexWIN!$E$7:$E$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.000000</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.92040599999999995</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.778411</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.6676169999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.525623</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.3680279999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SimpleWIN!$N$6:$N$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>441</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>551</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>ComplexWIN!$G$6</c:f>
+              <c:f>SimpleWIN!$O$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DynamicFastBuffers</c:v>
+                  <c:v>Protobuf</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>ComplexWIN!$C$7:$C$11</c:f>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>SimpleWIN!$Q$6:$Q$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>136</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>264</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>392</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>520</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>656</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>ComplexWIN!$G$7:$G$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.000000</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.327602</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.592804</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.81120499999999995</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0140070000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.2168079999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SimpleWIN!$O$6:$O$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>135</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>ComplexWIN!$D$6</c:f>
+              <c:f>SimpleWIN!$P$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Fast CDR</c:v>
+                  <c:v>Fast CDR &amp; DFB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>ComplexWIN!$C$7:$C$11</c:f>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>SimpleWIN!$Q$6:$Q$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>136</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>264</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>392</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>520</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>656</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>ComplexWIN!$D$7:$D$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.000000</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.124801</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.296402</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.452403</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.60840399999999994</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.74880500000000005</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>ComplexWIN!$F$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Google Protocol Buffers</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>ComplexWIN!$C$7:$C$11</c:f>
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SimpleWIN!$P$6:$P$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>136</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>264</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>392</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>520</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>656</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>ComplexWIN!$F$7:$F$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.000000</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.26520199999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.54600300000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.82680500000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.107607</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.3572090000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1205,11 +1168,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="68880064"/>
-        <c:axId val="68880640"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="68880064"/>
+        <c:gapWidth val="150"/>
+        <c:axId val="46232576"/>
+        <c:axId val="42655040"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="46232576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1226,7 +1190,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Structure Size (Bytes)</a:t>
+                  <a:t>Number of integers</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1235,15 +1199,18 @@
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68880640"/>
+        <c:crossAx val="42655040"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="68880640"/>
+        <c:axId val="42655040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1261,7 +1228,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Time (microseconds)</a:t>
+                  <a:t>Serialized size</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1269,13 +1236,13 @@
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="0.000000" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68880064"/>
+        <c:crossAx val="46232576"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1364,7 +1331,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>NestedSimpleWIN!$E$6</c:f>
+              <c:f>ComplexWIN!$E$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1375,48 +1342,48 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>NestedSimpleWIN!$C$7:$C$11</c:f>
+              <c:f>ComplexWIN!$C$7:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>400</c:v>
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>656</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>NestedSimpleWIN!$E$7:$E$11</c:f>
+              <c:f>ComplexWIN!$E$7:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.37440200000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.2636080000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.1356199999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.179233</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.2212530000000008</c:v>
+                  <c:v>0.92040599999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.778411</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6676169999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.525623</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.3680279999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1428,7 +1395,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>NestedSimpleWIN!$G$6</c:f>
+              <c:f>ComplexWIN!$G$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1439,48 +1406,48 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>NestedSimpleWIN!$C$7:$C$11</c:f>
+              <c:f>ComplexWIN!$C$7:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>400</c:v>
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>656</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>NestedSimpleWIN!$G$7:$G$11</c:f>
+              <c:f>ComplexWIN!$G$7:$G$11</c:f>
               <c:numCache>
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4.6800000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.18720100000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.39000200000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.68640400000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.0608070000000001</c:v>
+                  <c:v>0.327602</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.592804</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.81120499999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0140070000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2168079999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1492,7 +1459,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>NestedSimpleWIN!$D$6</c:f>
+              <c:f>ComplexWIN!$D$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1503,48 +1470,48 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>NestedSimpleWIN!$C$7:$C$11</c:f>
+              <c:f>ComplexWIN!$C$7:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>400</c:v>
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>656</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>NestedSimpleWIN!$D$7:$D$11</c:f>
+              <c:f>ComplexWIN!$D$7:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.5599999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.6800000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.21840100000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.39000200000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.54320199999999996</c:v>
+                  <c:v>0.124801</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.296402</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.452403</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.60840399999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.74880500000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1556,7 +1523,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>NestedSimpleWIN!$F$6</c:f>
+              <c:f>ComplexWIN!$F$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1567,48 +1534,48 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>NestedSimpleWIN!$C$7:$C$11</c:f>
+              <c:f>ComplexWIN!$C$7:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>400</c:v>
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>656</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>NestedSimpleWIN!$F$7:$F$11</c:f>
+              <c:f>ComplexWIN!$F$7:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.124801</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.296402</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                  <c:v>0.26520199999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.54600300000000002</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.87360599999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.294808</c:v>
+                <c:pt idx="2">
+                  <c:v>0.82680500000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.107607</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3572090000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1623,11 +1590,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="68882944"/>
-        <c:axId val="68883520"/>
+        <c:axId val="69994176"/>
+        <c:axId val="69994752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="68882944"/>
+        <c:axId val="69994176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1656,12 +1623,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68883520"/>
+        <c:crossAx val="69994752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="68883520"/>
+        <c:axId val="69994752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1691,7 +1658,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68882944"/>
+        <c:crossAx val="69994176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1714,6 +1681,1164 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Serialized data comparison</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400"/>
+              <a:t>(simple structure)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SimpleWIN!$N$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Thrift</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>ComplexWIN!$P$6:$P$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ComplexWIN!$M$6:$M$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>547</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>571</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SimpleWIN!$O$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Protobuf</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>ComplexWIN!$P$6:$P$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ComplexWIN!$N$6:$N$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>297</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SimpleWIN!$P$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fast CDR &amp; DFB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>ComplexWIN!$P$6:$P$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ComplexWIN!$O$6:$O$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>350</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="145377792"/>
+        <c:axId val="119523008"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="145377792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Repetitions per data type</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="119523008"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="119523008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Serialized size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="145377792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Performance</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Google Protobuf &amp; </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Apache Thrift VS eProsima </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>FastCDR &amp; </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Dynamic Fast Buffers</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>NestedSimpleWIN!$E$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Thrift</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>NestedSimpleWIN!$C$7:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>NestedSimpleWIN!$E$7:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.37440200000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2636080000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1356199999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.179233</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.2212530000000008</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>NestedSimpleWIN!$G$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DynamicFastBuffers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>NestedSimpleWIN!$C$7:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>NestedSimpleWIN!$G$7:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.6800000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18720100000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.39000200000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.68640400000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0608070000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>NestedSimpleWIN!$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fast CDR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>NestedSimpleWIN!$C$7:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>NestedSimpleWIN!$D$7:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.5599999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.6800000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21840100000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.39000200000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.54320199999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>NestedSimpleWIN!$F$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Google Protocol Buffers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>NestedSimpleWIN!$C$7:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>NestedSimpleWIN!$F$7:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.124801</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.296402</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.54600300000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.87360599999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.294808</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="69997056"/>
+        <c:axId val="69997632"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="69997056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Structure Size (Bytes)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="69997632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="69997632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (microseconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="69997056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Serialized data comparison</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400"/>
+              <a:t>(simple structure)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SimpleWIN!$N$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Thrift</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>NestedSimpleWIN!$P$6:$P$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>NestedSimpleWIN!$M$6:$M$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>481</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>571</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SimpleWIN!$O$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Protobuf</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>NestedSimpleWIN!$P$6:$P$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>NestedSimpleWIN!$N$6:$N$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>220</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SimpleWIN!$P$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fast CDR &amp; DFB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>NestedSimpleWIN!$P$6:$P$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>NestedSimpleWIN!$O$6:$O$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="145378816"/>
+        <c:axId val="119525312"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="145378816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Integers and inner structures</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="119525312"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="119525312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Serialized size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="145378816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2035,11 +3160,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="68885824"/>
-        <c:axId val="115638272"/>
+        <c:axId val="69999936"/>
+        <c:axId val="97615872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="68885824"/>
+        <c:axId val="69999936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2068,12 +3193,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115638272"/>
+        <c:crossAx val="97615872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="115638272"/>
+        <c:axId val="97615872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2103,9 +3228,379 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68885824"/>
+        <c:crossAx val="69999936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Serialized data comparison</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400"/>
+              <a:t>(simple structure)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SimpleWIN!$N$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Thrift</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>NestedComplexWIN!$Q$6:$Q$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>NestedComplexWIN!$N$6:$N$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>691</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1132</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1394</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SimpleWIN!$O$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Protobuf</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>NestedComplexWIN!$Q$6:$Q$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>NestedComplexWIN!$O$6:$O$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>427</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>727</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>916</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SimpleWIN!$P$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fast CDR &amp; DFB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>NestedComplexWIN!$Q$6:$Q$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>NestedComplexWIN!$P$6:$P$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>792</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>979</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="155592192"/>
+        <c:axId val="159768576"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="155592192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Internal complex structures</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="159768576"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="159768576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Serialized size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="155592192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2159,6 +3654,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>761999</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="2 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2191,6 +3716,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>52388</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="2 Gráfico"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2233,6 +3790,38 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>33338</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="2 Gráfico"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2265,6 +3854,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>33338</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="2 Gráfico"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2560,10 +4181,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:L11"/>
+  <dimension ref="C1:Q11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38:C40"/>
+    <sheetView tabSelected="1" topLeftCell="G7" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4:Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2575,7 +4196,7 @@
     <col min="12" max="12" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:17" x14ac:dyDescent="0.25">
       <c r="I1" s="14" t="s">
         <v>7</v>
       </c>
@@ -2589,7 +4210,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:17" x14ac:dyDescent="0.25">
       <c r="I2" s="14" t="s">
         <v>4</v>
       </c>
@@ -2603,7 +4224,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
@@ -2614,7 +4235,7 @@
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
     </row>
-    <row r="4" spans="3:12" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:17" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="16" t="str">
         <f>CONCATENATE("PERFORMANCE TESTS INVOLVING ",K1,", ",J1,", ", I1, " &amp; ",L1)</f>
         <v>PERFORMANCE TESTS INVOLVING DYNAMIC FAST BUFFERS, FAST CDR, GOOGLE PROTOCOL BUFFERS &amp; APACHE THRIFT</v>
@@ -2627,8 +4248,14 @@
       <c r="J4" s="14"/>
       <c r="K4" s="14"/>
       <c r="L4" s="14"/>
+      <c r="N4" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
     </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C5" s="21" t="s">
         <v>1</v>
       </c>
@@ -2642,8 +4269,20 @@
       <c r="J5" s="14"/>
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
+      <c r="N5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O5" t="s">
+        <v>11</v>
+      </c>
+      <c r="P5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="6" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="22"/>
       <c r="D6" s="11" t="str">
         <f>J2</f>
@@ -2665,8 +4304,20 @@
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
+      <c r="N6">
+        <v>111</v>
+      </c>
+      <c r="O6">
+        <v>20</v>
+      </c>
+      <c r="P6">
+        <v>80</v>
+      </c>
+      <c r="Q6">
+        <v>10</v>
+      </c>
     </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C7" s="8">
         <v>80</v>
       </c>
@@ -2686,8 +4337,20 @@
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
+      <c r="N7">
+        <v>221</v>
+      </c>
+      <c r="O7">
+        <v>45</v>
+      </c>
+      <c r="P7">
+        <v>160</v>
+      </c>
+      <c r="Q7">
+        <v>20</v>
+      </c>
     </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C8" s="2">
         <v>160</v>
       </c>
@@ -2707,8 +4370,20 @@
       <c r="J8" s="14"/>
       <c r="K8" s="14"/>
       <c r="L8" s="14"/>
+      <c r="N8">
+        <v>331</v>
+      </c>
+      <c r="O8">
+        <v>75</v>
+      </c>
+      <c r="P8">
+        <v>240</v>
+      </c>
+      <c r="Q8">
+        <v>30</v>
+      </c>
     </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C9" s="2">
         <v>240</v>
       </c>
@@ -2728,8 +4403,20 @@
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
+      <c r="N9">
+        <v>441</v>
+      </c>
+      <c r="O9">
+        <v>105</v>
+      </c>
+      <c r="P9">
+        <v>320</v>
+      </c>
+      <c r="Q9">
+        <v>40</v>
+      </c>
     </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C10" s="2">
         <v>320</v>
       </c>
@@ -2749,8 +4436,20 @@
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
+      <c r="N10">
+        <v>551</v>
+      </c>
+      <c r="O10">
+        <v>135</v>
+      </c>
+      <c r="P10">
+        <v>400</v>
+      </c>
+      <c r="Q10">
+        <v>50</v>
+      </c>
     </row>
-    <row r="11" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="5">
         <v>400</v>
       </c>
@@ -2786,10 +4485,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:L11"/>
+  <dimension ref="C1:P11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:G5"/>
+    <sheetView topLeftCell="G13" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2801,7 +4500,7 @@
     <col min="12" max="12" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:16" x14ac:dyDescent="0.25">
       <c r="I1" s="14" t="s">
         <v>7</v>
       </c>
@@ -2815,7 +4514,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:16" x14ac:dyDescent="0.25">
       <c r="I2" s="14" t="s">
         <v>4</v>
       </c>
@@ -2829,7 +4528,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
@@ -2840,7 +4539,7 @@
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
     </row>
-    <row r="4" spans="3:12" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:16" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="16" t="str">
         <f>CONCATENATE("PERFORMANCE TESTS INVOLVING ",K1,", ",J1,", ", I1, " &amp; ",L1)</f>
         <v>PERFORMANCE TESTS INVOLVING DYNAMIC FAST BUFFERS, FAST CDR, GOOGLE PROTOCOL BUFFERS &amp; APACHE THRIFT</v>
@@ -2853,8 +4552,14 @@
       <c r="J4" s="14"/>
       <c r="K4" s="14"/>
       <c r="L4" s="14"/>
+      <c r="M4" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
     </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C5" s="21" t="s">
         <v>1</v>
       </c>
@@ -2868,8 +4573,20 @@
       <c r="J5" s="14"/>
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
+      <c r="M5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O5" t="s">
+        <v>13</v>
+      </c>
+      <c r="P5" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="6" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="22"/>
       <c r="D6" s="11" t="str">
         <f>J2</f>
@@ -2891,8 +4608,20 @@
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
+      <c r="M6">
+        <v>115</v>
+      </c>
+      <c r="N6">
+        <v>56</v>
+      </c>
+      <c r="O6">
+        <v>70</v>
+      </c>
+      <c r="P6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C7" s="8">
         <v>136</v>
       </c>
@@ -2912,8 +4641,20 @@
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
+      <c r="M7">
+        <v>229</v>
+      </c>
+      <c r="N7">
+        <v>124</v>
+      </c>
+      <c r="O7">
+        <v>140</v>
+      </c>
+      <c r="P7">
+        <v>4</v>
+      </c>
     </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C8" s="2">
         <v>264</v>
       </c>
@@ -2933,8 +4674,20 @@
       <c r="J8" s="14"/>
       <c r="K8" s="14"/>
       <c r="L8" s="14"/>
+      <c r="M8">
+        <v>343</v>
+      </c>
+      <c r="N8">
+        <v>195</v>
+      </c>
+      <c r="O8">
+        <v>210</v>
+      </c>
+      <c r="P8">
+        <v>6</v>
+      </c>
     </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C9" s="2">
         <v>392</v>
       </c>
@@ -2954,8 +4707,20 @@
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
+      <c r="M9">
+        <v>547</v>
+      </c>
+      <c r="N9">
+        <v>265</v>
+      </c>
+      <c r="O9">
+        <v>280</v>
+      </c>
+      <c r="P9">
+        <v>8</v>
+      </c>
     </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C10" s="2">
         <v>520</v>
       </c>
@@ -2975,8 +4740,20 @@
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
+      <c r="M10">
+        <v>571</v>
+      </c>
+      <c r="N10">
+        <v>297</v>
+      </c>
+      <c r="O10">
+        <v>350</v>
+      </c>
+      <c r="P10">
+        <v>10</v>
+      </c>
     </row>
-    <row r="11" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="5">
         <v>656</v>
       </c>
@@ -3012,10 +4789,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:L11"/>
+  <dimension ref="C1:P11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="G10" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3027,7 +4804,7 @@
     <col min="12" max="12" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:16" x14ac:dyDescent="0.25">
       <c r="I1" s="14" t="s">
         <v>7</v>
       </c>
@@ -3041,7 +4818,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:16" x14ac:dyDescent="0.25">
       <c r="I2" s="14" t="s">
         <v>4</v>
       </c>
@@ -3055,7 +4832,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
@@ -3066,7 +4843,7 @@
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
     </row>
-    <row r="4" spans="3:12" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:16" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="16" t="str">
         <f>CONCATENATE("PERFORMANCE TESTS INVOLVING ",K1,", ",J1,", ", I1, " &amp; ",L1)</f>
         <v>PERFORMANCE TESTS INVOLVING DYNAMIC FAST BUFFERS, FAST CDR, GOOGLE PROTOCOL BUFFERS &amp; APACHE THRIFT</v>
@@ -3079,8 +4856,14 @@
       <c r="J4" s="14"/>
       <c r="K4" s="14"/>
       <c r="L4" s="14"/>
+      <c r="M4" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
     </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C5" s="21" t="s">
         <v>1</v>
       </c>
@@ -3094,8 +4877,20 @@
       <c r="J5" s="14"/>
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
+      <c r="M5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O5" t="s">
+        <v>13</v>
+      </c>
+      <c r="P5" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="6" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="22"/>
       <c r="D6" s="11" t="str">
         <f>J2</f>
@@ -3117,8 +4912,20 @@
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
+      <c r="M6">
+        <v>37</v>
+      </c>
+      <c r="N6">
+        <v>12</v>
+      </c>
+      <c r="O6">
+        <v>16</v>
+      </c>
+      <c r="P6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C7" s="8">
         <v>16</v>
       </c>
@@ -3138,8 +4945,20 @@
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
+      <c r="M7">
+        <v>129</v>
+      </c>
+      <c r="N7">
+        <v>40</v>
+      </c>
+      <c r="O7">
+        <v>64</v>
+      </c>
+      <c r="P7">
+        <v>4</v>
+      </c>
     </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C8" s="2">
         <v>64</v>
       </c>
@@ -3159,8 +4978,20 @@
       <c r="J8" s="14"/>
       <c r="K8" s="14"/>
       <c r="L8" s="14"/>
+      <c r="M8">
+        <v>227</v>
+      </c>
+      <c r="N8">
+        <v>84</v>
+      </c>
+      <c r="O8">
+        <v>144</v>
+      </c>
+      <c r="P8">
+        <v>6</v>
+      </c>
     </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C9" s="2">
         <v>144</v>
       </c>
@@ -3180,8 +5011,20 @@
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
+      <c r="M9">
+        <v>481</v>
+      </c>
+      <c r="N9">
+        <v>144</v>
+      </c>
+      <c r="O9">
+        <v>256</v>
+      </c>
+      <c r="P9">
+        <v>8</v>
+      </c>
     </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C10" s="2">
         <v>256</v>
       </c>
@@ -3201,8 +5044,20 @@
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
+      <c r="M10">
+        <v>571</v>
+      </c>
+      <c r="N10">
+        <v>220</v>
+      </c>
+      <c r="O10">
+        <v>400</v>
+      </c>
+      <c r="P10">
+        <v>10</v>
+      </c>
     </row>
-    <row r="11" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="5">
         <v>400</v>
       </c>
@@ -3238,10 +5093,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:L11"/>
+  <dimension ref="C1:Q11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:G5"/>
+    <sheetView topLeftCell="G4" workbookViewId="0">
+      <selection activeCell="R45" sqref="R45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3253,7 +5108,7 @@
     <col min="12" max="12" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:17" x14ac:dyDescent="0.25">
       <c r="I1" s="14" t="s">
         <v>7</v>
       </c>
@@ -3267,7 +5122,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:17" x14ac:dyDescent="0.25">
       <c r="I2" s="14" t="s">
         <v>4</v>
       </c>
@@ -3281,7 +5136,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
@@ -3292,7 +5147,7 @@
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
     </row>
-    <row r="4" spans="3:12" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:17" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="16" t="str">
         <f>CONCATENATE("PERFORMANCE TESTS INVOLVING ",K1,", ",J1,", ", I1, " &amp; ",L1)</f>
         <v>PERFORMANCE TESTS INVOLVING DYNAMIC FAST BUFFERS, FAST CDR, GOOGLE PROTOCOL BUFFERS &amp; APACHE THRIFT</v>
@@ -3305,8 +5160,14 @@
       <c r="J4" s="14"/>
       <c r="K4" s="14"/>
       <c r="L4" s="14"/>
+      <c r="N4" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
     </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C5" s="21" t="s">
         <v>1</v>
       </c>
@@ -3320,8 +5181,20 @@
       <c r="J5" s="14"/>
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
+      <c r="N5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O5" t="s">
+        <v>11</v>
+      </c>
+      <c r="P5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="6" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="22"/>
       <c r="D6" s="11" t="str">
         <f>J2</f>
@@ -3343,8 +5216,20 @@
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
+      <c r="N6">
+        <v>125</v>
+      </c>
+      <c r="O6">
+        <v>70</v>
+      </c>
+      <c r="P6">
+        <v>82</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C7" s="8">
         <v>160</v>
       </c>
@@ -3364,8 +5249,20 @@
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
+      <c r="N7">
+        <v>356</v>
+      </c>
+      <c r="O7">
+        <v>208</v>
+      </c>
+      <c r="P7">
+        <v>244</v>
+      </c>
+      <c r="Q7">
+        <v>2</v>
+      </c>
     </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C8" s="2">
         <v>424</v>
       </c>
@@ -3385,8 +5282,20 @@
       <c r="J8" s="14"/>
       <c r="K8" s="14"/>
       <c r="L8" s="14"/>
+      <c r="N8">
+        <v>691</v>
+      </c>
+      <c r="O8">
+        <v>427</v>
+      </c>
+      <c r="P8">
+        <v>483</v>
+      </c>
+      <c r="Q8">
+        <v>3</v>
+      </c>
     </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C9" s="2">
         <v>840</v>
       </c>
@@ -3406,8 +5315,20 @@
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
+      <c r="N9">
+        <v>1132</v>
+      </c>
+      <c r="O9">
+        <v>727</v>
+      </c>
+      <c r="P9">
+        <v>792</v>
+      </c>
+      <c r="Q9">
+        <v>4</v>
+      </c>
     </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C10" s="2">
         <v>1296</v>
       </c>
@@ -3427,8 +5348,20 @@
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
+      <c r="N10">
+        <v>1394</v>
+      </c>
+      <c r="O10">
+        <v>916</v>
+      </c>
+      <c r="P10">
+        <v>979</v>
+      </c>
+      <c r="Q10">
+        <v>5</v>
+      </c>
     </row>
-    <row r="11" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="5">
         <v>1600</v>
       </c>

--- a/doc/performance tests/Performance_WIN.xlsx
+++ b/doc/performance tests/Performance_WIN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="28515" windowHeight="12585" tabRatio="855"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="28515" windowHeight="12585" tabRatio="855" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="SimpleWIN" sheetId="11" r:id="rId1"/>
@@ -420,6 +420,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -451,9 +454,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -802,11 +802,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="68737792"/>
-        <c:axId val="68738368"/>
+        <c:axId val="84990720"/>
+        <c:axId val="84991296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="68737792"/>
+        <c:axId val="84990720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -835,12 +835,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68738368"/>
+        <c:crossAx val="84991296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="68738368"/>
+        <c:axId val="84991296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -870,7 +870,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68737792"/>
+        <c:crossAx val="84990720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1169,11 +1169,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="46232576"/>
-        <c:axId val="42655040"/>
+        <c:axId val="92111360"/>
+        <c:axId val="92210880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="46232576"/>
+        <c:axId val="92111360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1202,7 +1202,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42655040"/>
+        <c:crossAx val="92210880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1210,7 +1210,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="42655040"/>
+        <c:axId val="92210880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1240,7 +1240,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46232576"/>
+        <c:crossAx val="92111360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1590,11 +1590,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="69994176"/>
-        <c:axId val="69994752"/>
+        <c:axId val="92213184"/>
+        <c:axId val="92213760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="69994176"/>
+        <c:axId val="92213184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1623,12 +1623,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69994752"/>
+        <c:crossAx val="92213760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="69994752"/>
+        <c:axId val="92213760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1658,7 +1658,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69994176"/>
+        <c:crossAx val="92213184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1714,7 +1714,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1400"/>
-              <a:t>(simple structure)</a:t>
+              <a:t>(complex structure)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1957,11 +1957,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="145377792"/>
-        <c:axId val="119523008"/>
+        <c:axId val="92114432"/>
+        <c:axId val="92216064"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="145377792"/>
+        <c:axId val="92114432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1990,7 +1990,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119523008"/>
+        <c:crossAx val="92216064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1998,7 +1998,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="119523008"/>
+        <c:axId val="92216064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2028,7 +2028,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145377792"/>
+        <c:crossAx val="92114432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2378,11 +2378,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="69997056"/>
-        <c:axId val="69997632"/>
+        <c:axId val="92914816"/>
+        <c:axId val="92915392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="69997056"/>
+        <c:axId val="92914816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2411,12 +2411,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69997632"/>
+        <c:crossAx val="92915392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="69997632"/>
+        <c:axId val="92915392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2446,7 +2446,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69997056"/>
+        <c:crossAx val="92914816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2502,7 +2502,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1400"/>
-              <a:t>(simple structure)</a:t>
+              <a:t>(simple nested structure)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2745,11 +2745,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="145378816"/>
-        <c:axId val="119525312"/>
+        <c:axId val="92932608"/>
+        <c:axId val="92917696"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="145378816"/>
+        <c:axId val="92932608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2778,7 +2778,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119525312"/>
+        <c:crossAx val="92917696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2786,7 +2786,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="119525312"/>
+        <c:axId val="92917696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2816,7 +2816,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145378816"/>
+        <c:crossAx val="92932608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3160,11 +3160,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="69999936"/>
-        <c:axId val="97615872"/>
+        <c:axId val="92920000"/>
+        <c:axId val="92920576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="69999936"/>
+        <c:axId val="92920000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3193,12 +3193,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97615872"/>
+        <c:crossAx val="92920576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="97615872"/>
+        <c:axId val="92920576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3228,7 +3228,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69999936"/>
+        <c:crossAx val="92920000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3284,7 +3284,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1400"/>
-              <a:t>(simple structure)</a:t>
+              <a:t>(complex nested structure)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3527,11 +3527,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="155592192"/>
-        <c:axId val="159768576"/>
+        <c:axId val="92024832"/>
+        <c:axId val="93389952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="155592192"/>
+        <c:axId val="92024832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3560,7 +3560,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159768576"/>
+        <c:crossAx val="93389952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3568,7 +3568,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="159768576"/>
+        <c:axId val="93389952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3598,7 +3598,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155592192"/>
+        <c:crossAx val="92024832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4183,8 +4183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:Q11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G7" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4:Q10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4225,46 +4225,46 @@
       </c>
     </row>
     <row r="3" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
     </row>
     <row r="4" spans="3:17" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="16" t="str">
+      <c r="C4" s="17" t="str">
         <f>CONCATENATE("PERFORMANCE TESTS INVOLVING ",K1,", ",J1,", ", I1, " &amp; ",L1)</f>
         <v>PERFORMANCE TESTS INVOLVING DYNAMIC FAST BUFFERS, FAST CDR, GOOGLE PROTOCOL BUFFERS &amp; APACHE THRIFT</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="21"/>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
       <c r="K4" s="14"/>
       <c r="L4" s="14"/>
-      <c r="N4" s="26" t="s">
+      <c r="N4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
     </row>
     <row r="5" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="26"/>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
       <c r="K5" s="14"/>
@@ -4283,7 +4283,7 @@
       </c>
     </row>
     <row r="6" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="22"/>
+      <c r="C6" s="23"/>
       <c r="D6" s="11" t="str">
         <f>J2</f>
         <v>Fast CDR</v>
@@ -4487,8 +4487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:P11"/>
   <sheetViews>
-    <sheetView topLeftCell="G13" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="X17" sqref="X17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4529,46 +4529,46 @@
       </c>
     </row>
     <row r="3" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
     </row>
     <row r="4" spans="3:16" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="16" t="str">
+      <c r="C4" s="17" t="str">
         <f>CONCATENATE("PERFORMANCE TESTS INVOLVING ",K1,", ",J1,", ", I1, " &amp; ",L1)</f>
         <v>PERFORMANCE TESTS INVOLVING DYNAMIC FAST BUFFERS, FAST CDR, GOOGLE PROTOCOL BUFFERS &amp; APACHE THRIFT</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="21"/>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
       <c r="K4" s="14"/>
       <c r="L4" s="14"/>
-      <c r="M4" s="26" t="s">
+      <c r="M4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
     </row>
     <row r="5" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="26"/>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
       <c r="K5" s="14"/>
@@ -4587,7 +4587,7 @@
       </c>
     </row>
     <row r="6" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="22"/>
+      <c r="C6" s="23"/>
       <c r="D6" s="11" t="str">
         <f>J2</f>
         <v>Fast CDR</v>
@@ -4791,7 +4791,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:P11"/>
   <sheetViews>
-    <sheetView topLeftCell="G10" workbookViewId="0">
+    <sheetView topLeftCell="F10" workbookViewId="0">
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
@@ -4833,46 +4833,46 @@
       </c>
     </row>
     <row r="3" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
     </row>
     <row r="4" spans="3:16" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="16" t="str">
+      <c r="C4" s="17" t="str">
         <f>CONCATENATE("PERFORMANCE TESTS INVOLVING ",K1,", ",J1,", ", I1, " &amp; ",L1)</f>
         <v>PERFORMANCE TESTS INVOLVING DYNAMIC FAST BUFFERS, FAST CDR, GOOGLE PROTOCOL BUFFERS &amp; APACHE THRIFT</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="21"/>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
       <c r="K4" s="14"/>
       <c r="L4" s="14"/>
-      <c r="M4" s="26" t="s">
+      <c r="M4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
     </row>
     <row r="5" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="26"/>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
       <c r="K5" s="14"/>
@@ -4891,7 +4891,7 @@
       </c>
     </row>
     <row r="6" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="22"/>
+      <c r="C6" s="23"/>
       <c r="D6" s="11" t="str">
         <f>J2</f>
         <v>Fast CDR</v>
@@ -5095,8 +5095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:Q11"/>
   <sheetViews>
-    <sheetView topLeftCell="G4" workbookViewId="0">
-      <selection activeCell="R45" sqref="R45"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5137,46 +5137,46 @@
       </c>
     </row>
     <row r="3" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
     </row>
     <row r="4" spans="3:17" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="16" t="str">
+      <c r="C4" s="17" t="str">
         <f>CONCATENATE("PERFORMANCE TESTS INVOLVING ",K1,", ",J1,", ", I1, " &amp; ",L1)</f>
         <v>PERFORMANCE TESTS INVOLVING DYNAMIC FAST BUFFERS, FAST CDR, GOOGLE PROTOCOL BUFFERS &amp; APACHE THRIFT</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="21"/>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
       <c r="K4" s="14"/>
       <c r="L4" s="14"/>
-      <c r="N4" s="26" t="s">
+      <c r="N4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
     </row>
     <row r="5" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="26"/>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
       <c r="K5" s="14"/>
@@ -5195,7 +5195,7 @@
       </c>
     </row>
     <row r="6" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="22"/>
+      <c r="C6" s="23"/>
       <c r="D6" s="11" t="str">
         <f>J2</f>
         <v>Fast CDR</v>
